--- a/src/bigdata/static/muestras/sample_users.xlsx
+++ b/src/bigdata/static/muestras/sample_users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,181 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bernadette</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Leclerc</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>bernadette.leclerc@example.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-03-01 15:01:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Lavigne</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>zoe.lavigne@example.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-03-01 15:01:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nash</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Westerik</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nash.westerik@example.com</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-03-01 15:01:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Abbas</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Schrade</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>abbas.schrade@example.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-03-01 15:01:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tugce</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Riezebos</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>tugce.riezebos@example.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-03-01 15:01:58</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
